--- a/data/1/МСТиГ/!печать/З/Номера зачеток сокр. В ПЕРВУЮ ОЧЕРЕДЬ.xlsx
+++ b/data/1/МСТиГ/!печать/З/Номера зачеток сокр. В ПЕРВУЮ ОЧЕРЕДЬ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Студенческие\2023-24\МСТиГ\!печать\З\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\МСТиГ\!печать\З\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7977E22-4215-43D2-88AB-82AA43FA9451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19165FB0-AF02-4765-8B8F-1A7175BDFB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="423" sheetId="4" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>№ студенческого билета, зачетки</t>
-  </si>
-  <si>
     <t>423</t>
   </si>
   <si>
@@ -176,6 +173,9 @@
   </si>
   <si>
     <t>Туризм и гостеприимство</t>
+  </si>
+  <si>
+    <t>N_ZACHET</t>
   </si>
 </sst>
 </file>
@@ -640,30 +640,30 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.28515625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.33203125" customWidth="1"/>
+    <col min="3" max="3" width="22.5546875" customWidth="1"/>
+    <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="1" t="s">
@@ -671,7 +671,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,397 +679,397 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
       <c r="G7" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>14</v>
-      </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
       <c r="G8" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
       <c r="G10" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>20</v>
-      </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>26</v>
-      </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>28</v>
-      </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>32</v>
-      </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>36</v>
-      </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>38</v>
-      </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>42</v>
-      </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5">
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/data/1/МСТиГ/!печать/З/Номера зачеток сокр. В ПЕРВУЮ ОЧЕРЕДЬ.xlsx
+++ b/data/1/МСТиГ/!печать/З/Номера зачеток сокр. В ПЕРВУЮ ОЧЕРЕДЬ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwlo\zachetker\data-sharer\data\1\МСТиГ\!печать\З\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19165FB0-AF02-4765-8B8F-1A7175BDFB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769E43A6-F5DE-496A-8731-5CD0370925D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,14 @@
     <sheet name="423" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'423'!$A$3:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'423'!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="51">
-  <si>
-    <t>Заочное</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>№ п/п</t>
   </si>
@@ -34,9 +31,6 @@
     <t>ФИО</t>
   </si>
   <si>
-    <t>423</t>
-  </si>
-  <si>
     <t>Аврамова Елена Дмитриевна</t>
   </si>
   <si>
@@ -155,9 +149,6 @@
   </si>
   <si>
     <t>234275</t>
-  </si>
-  <si>
-    <t>«Туризм и гостеприимство» сокращенное на 2 курс</t>
   </si>
   <si>
     <t>№ Бланка</t>
@@ -199,14 +190,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -220,6 +203,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -229,7 +219,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -252,22 +242,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -277,14 +257,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -293,11 +267,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -649,440 +620,419 @@
     <col min="2" max="2" width="37.33203125" customWidth="1"/>
     <col min="3" max="3" width="22.5546875" customWidth="1"/>
     <col min="4" max="4" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="25.6640625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>46</v>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>3</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="B8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="D8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>6</v>
-      </c>
-      <c r="B9" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="B15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5" t="s">
+      <c r="B16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
+      <c r="B18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>11</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>12</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>13</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D17" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>15</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>16</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5">
-        <v>17</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5">
-        <v>18</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>39</v>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5">
-        <v>20</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:G3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G23">
-      <sortCondition ref="C3"/>
+  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G21">
+      <sortCondition ref="C1"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="2">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
